--- a/methane protocol/dat/schemes.xlsx
+++ b/methane protocol/dat/schemes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/AU-MHB/methane protocol/dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="14_{484B066F-5A1C-4999-BD7C-090F3CD098DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9F04C7-5DA8-4386-BBA8-C90D184E0D12}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="14_{484B066F-5A1C-4999-BD7C-090F3CD098DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55862937-0646-4B88-A2FB-9E057575CB5E}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8655" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,90 +1024,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>6</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>8</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52">
-        <v>7</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/methane protocol/dat/schemes.xlsx
+++ b/methane protocol/dat/schemes.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/AU-MHB/methane protocol/dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="14_{484B066F-5A1C-4999-BD7C-090F3CD098DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55862937-0646-4B88-A2FB-9E057575CB5E}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="14_{484B066F-5A1C-4999-BD7C-090F3CD098DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1828F5C7-7FCC-4471-9776-9384C741EA7B}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -358,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -679,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -763,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -777,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -861,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -938,90 +949,6 @@
       </c>
       <c r="D41">
         <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/methane protocol/dat/schemes.xlsx
+++ b/methane protocol/dat/schemes.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="54" documentId="14_{484B066F-5A1C-4999-BD7C-090F3CD098DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1828F5C7-7FCC-4471-9776-9384C741EA7B}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
